--- a/preliminary/L1Menu_Collisions2022_v0_1_7/PrescaleTable/L1Menu_Collisions2022_v0_1_7.xlsx
+++ b/preliminary/L1Menu_Collisions2022_v0_1_7/PrescaleTable/L1Menu_Collisions2022_v0_1_7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Desktop/L1Menus/L1Menu_Collisions2022_v0_1_7/PrescaleTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E57A56-7382-BD4A-98C6-129F1B605E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B6E06D-002F-7941-A217-C7FF45C7C9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="500" windowWidth="22300" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2541,8 +2541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3B8E07-BE26-384A-A4B5-1B0A96E53592}">
   <dimension ref="A1:IV385"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A293" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B310" sqref="B310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10476,25 +10476,25 @@
         <v>0</v>
       </c>
       <c r="E227" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G227" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K227" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">

--- a/preliminary/L1Menu_Collisions2022_v0_1_7/PrescaleTable/L1Menu_Collisions2022_v0_1_7.xlsx
+++ b/preliminary/L1Menu_Collisions2022_v0_1_7/PrescaleTable/L1Menu_Collisions2022_v0_1_7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Desktop/L1Menus/L1Menu_Collisions2022_v0_1_7/PrescaleTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B6E06D-002F-7941-A217-C7FF45C7C9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0ACBAA-5C87-0C49-8461-FD456463A16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="500" windowWidth="22300" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2541,8 +2541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3B8E07-BE26-384A-A4B5-1B0A96E53592}">
   <dimension ref="A1:IV385"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A293" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B310" sqref="B310"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A209" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F230" sqref="F230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10476,25 +10476,25 @@
         <v>0</v>
       </c>
       <c r="E227" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G227" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K227" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
